--- a/output/5Y_P1_KFSDIV.xlsx
+++ b/output/5Y_P1_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.0976</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>10.8505</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>11.8576</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5699</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5994</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6663</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.701</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8109</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.9322</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.5846</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2867</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0645</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8083</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.5636</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.1788</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.5668</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.962</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2659</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.4103</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.3976</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9013</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3527</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8804</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6268</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3636</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.8711</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1252</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.1934</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.1176</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3311</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.3637</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.6447</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>15.486</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.1958</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.4264</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>17.107</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>16.8894</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>16.4004</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>15.3877</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>14.6367</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.0061</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.835</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>14.4216</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.2404</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.382</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.9583</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.2036</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.9136</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.0976</v>
@@ -5091,10 +5094,10 @@
         <v>160879.9667</v>
       </c>
       <c r="K15" s="1">
-        <v>104699.6</v>
+        <v>104702.9382</v>
       </c>
       <c r="L15" s="1">
-        <v>8.9115</v>
+        <v>8.911799999999999</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>10.8505</v>
@@ -5144,10 +5147,10 @@
         <v>167723.1891</v>
       </c>
       <c r="K16" s="1">
-        <v>114617.0119</v>
+        <v>114620.3501</v>
       </c>
       <c r="L16" s="1">
-        <v>9.067399999999999</v>
+        <v>9.067600000000001</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>11.8576</v>
@@ -5197,10 +5200,10 @@
         <v>197281.374</v>
       </c>
       <c r="K17" s="1">
-        <v>127786.8831</v>
+        <v>127790.2213</v>
       </c>
       <c r="L17" s="1">
-        <v>9.225199999999999</v>
+        <v>9.2254</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5699</v>
@@ -5250,10 +5253,10 @@
         <v>216893.0827</v>
       </c>
       <c r="K18" s="1">
-        <v>123848.5429</v>
+        <v>123867.626</v>
       </c>
       <c r="L18" s="1">
-        <v>9.1601</v>
+        <v>9.1615</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5994</v>
@@ -5303,10 +5306,10 @@
         <v>240814.2667</v>
       </c>
       <c r="K19" s="1">
-        <v>124238.3911</v>
+        <v>124257.4741</v>
       </c>
       <c r="L19" s="1">
-        <v>9.167899999999999</v>
+        <v>9.1693</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6663</v>
@@ -5356,10 +5359,10 @@
         <v>271034.2188</v>
       </c>
       <c r="K20" s="1">
-        <v>120299.9271</v>
+        <v>120334.7332</v>
       </c>
       <c r="L20" s="1">
-        <v>9.0707</v>
+        <v>9.073399999999999</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.701</v>
@@ -5409,10 +5412,10 @@
         <v>281483.3545</v>
       </c>
       <c r="K21" s="1">
-        <v>116161.5892</v>
+        <v>116212.9254</v>
       </c>
       <c r="L21" s="1">
-        <v>8.948700000000001</v>
+        <v>8.9527</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8109</v>
@@ -5462,10 +5465,10 @@
         <v>279335.9033</v>
       </c>
       <c r="K22" s="1">
-        <v>125750.796</v>
+        <v>125802.1322</v>
       </c>
       <c r="L22" s="1">
-        <v>9.2248</v>
+        <v>9.2286</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.9322</v>
@@ -5515,10 +5518,10 @@
         <v>303359.3351</v>
       </c>
       <c r="K23" s="1">
-        <v>147948.6087</v>
+        <v>147999.9449</v>
       </c>
       <c r="L23" s="1">
-        <v>9.710599999999999</v>
+        <v>9.713900000000001</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.5846</v>
@@ -5568,10 +5571,10 @@
         <v>292046.9979</v>
       </c>
       <c r="K24" s="1">
-        <v>156137.8065</v>
+        <v>156189.1427</v>
       </c>
       <c r="L24" s="1">
-        <v>9.8681</v>
+        <v>9.8714</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2867</v>
@@ -5621,10 +5624,10 @@
         <v>296477.027</v>
       </c>
       <c r="K25" s="1">
-        <v>187542.9336</v>
+        <v>187594.2698</v>
       </c>
       <c r="L25" s="1">
-        <v>10.241</v>
+        <v>10.2438</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0645</v>
@@ -5674,10 +5677,10 @@
         <v>329850.0326</v>
       </c>
       <c r="K26" s="1">
-        <v>203049.3503</v>
+        <v>203100.6865</v>
       </c>
       <c r="L26" s="1">
-        <v>10.3742</v>
+        <v>10.3768</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8083</v>
@@ -5727,10 +5730,10 @@
         <v>354082.9906</v>
       </c>
       <c r="K27" s="1">
-        <v>197834.3807</v>
+        <v>197906.5517</v>
       </c>
       <c r="L27" s="1">
-        <v>10.3178</v>
+        <v>10.3215</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.5636</v>
@@ -5780,10 +5783,10 @@
         <v>359475.6775</v>
       </c>
       <c r="K28" s="1">
-        <v>193584.4364</v>
+        <v>193673.5937</v>
       </c>
       <c r="L28" s="1">
-        <v>10.2605</v>
+        <v>10.2652</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.1788</v>
@@ -5833,10 +5836,10 @@
         <v>370245.9307</v>
       </c>
       <c r="K29" s="1">
-        <v>208250.3449</v>
+        <v>208339.5022</v>
       </c>
       <c r="L29" s="1">
-        <v>10.4407</v>
+        <v>10.4451</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.5668</v>
@@ -5886,10 +5889,10 @@
         <v>409666.5295</v>
       </c>
       <c r="K30" s="1">
-        <v>225982.5319</v>
+        <v>226071.6892</v>
       </c>
       <c r="L30" s="1">
-        <v>10.615</v>
+        <v>10.6192</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.962</v>
@@ -5939,10 +5942,10 @@
         <v>407625.8353</v>
       </c>
       <c r="K31" s="1">
-        <v>206412.8662</v>
+        <v>206580.1896</v>
       </c>
       <c r="L31" s="1">
-        <v>10.3475</v>
+        <v>10.3559</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2659</v>
@@ -5992,10 +5995,10 @@
         <v>390070.3859</v>
       </c>
       <c r="K32" s="1">
-        <v>228541.982</v>
+        <v>228709.3053</v>
       </c>
       <c r="L32" s="1">
-        <v>10.6151</v>
+        <v>10.6229</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.4103</v>
@@ -6045,10 +6048,10 @@
         <v>403533.2754</v>
       </c>
       <c r="K33" s="1">
-        <v>275171.9551</v>
+        <v>275339.2785</v>
       </c>
       <c r="L33" s="1">
-        <v>10.8661</v>
+        <v>10.8727</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.3976</v>
@@ -6098,10 +6101,10 @@
         <v>413179.6654</v>
       </c>
       <c r="K34" s="1">
-        <v>281548.2653</v>
+        <v>281715.5887</v>
       </c>
       <c r="L34" s="1">
-        <v>10.8972</v>
+        <v>10.9037</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9013</v>
@@ -6151,10 +6154,10 @@
         <v>448172.4778</v>
       </c>
       <c r="K35" s="1">
-        <v>291917.7943</v>
+        <v>292085.1176</v>
       </c>
       <c r="L35" s="1">
-        <v>10.945</v>
+        <v>10.9512</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3527</v>
@@ -6204,10 +6207,10 @@
         <v>470068.7148</v>
       </c>
       <c r="K36" s="1">
-        <v>288496.3941</v>
+        <v>288677.4007</v>
       </c>
       <c r="L36" s="1">
-        <v>10.9251</v>
+        <v>10.932</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8804</v>
@@ -6257,10 +6260,10 @@
         <v>493899.5718</v>
       </c>
       <c r="K37" s="1">
-        <v>286592.5442</v>
+        <v>286781.1637</v>
       </c>
       <c r="L37" s="1">
-        <v>10.9118</v>
+        <v>10.919</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6268</v>
@@ -6310,10 +6313,10 @@
         <v>535079.5586</v>
       </c>
       <c r="K38" s="1">
-        <v>282746.3114</v>
+        <v>282950.3067</v>
       </c>
       <c r="L38" s="1">
-        <v>10.8799</v>
+        <v>10.8878</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3636</v>
@@ -6363,10 +6366,10 @@
         <v>563716.9373</v>
       </c>
       <c r="K39" s="1">
-        <v>273347.8108</v>
+        <v>273589.3203</v>
       </c>
       <c r="L39" s="1">
-        <v>10.7844</v>
+        <v>10.7939</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.8711</v>
@@ -6416,10 +6419,10 @@
         <v>536802.1985000001</v>
       </c>
       <c r="K40" s="1">
-        <v>264675.7876</v>
+        <v>264951.9416</v>
       </c>
       <c r="L40" s="1">
-        <v>10.6796</v>
+        <v>10.6907</v>
       </c>
       <c r="M40" s="1">
         <v>0.5</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1252</v>
@@ -6469,10 +6472,10 @@
         <v>564911.0878</v>
       </c>
       <c r="K41" s="1">
-        <v>311778.6139</v>
+        <v>312054.7678</v>
       </c>
       <c r="L41" s="1">
-        <v>11.0669</v>
+        <v>11.0767</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.1934</v>
@@ -6522,10 +6525,10 @@
         <v>576829.1317</v>
       </c>
       <c r="K42" s="1">
-        <v>314645.571</v>
+        <v>314921.7249</v>
       </c>
       <c r="L42" s="1">
-        <v>11.0889</v>
+        <v>11.0986</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.1176</v>
@@ -6575,10 +6578,10 @@
         <v>584608.5595</v>
       </c>
       <c r="K43" s="1">
-        <v>322748.4442</v>
+        <v>323024.5982</v>
       </c>
       <c r="L43" s="1">
-        <v>11.1506</v>
+        <v>11.1601</v>
       </c>
       <c r="M43" s="1">
         <v>0.5</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3311</v>
@@ -6628,10 +6631,10 @@
         <v>643684.2243</v>
       </c>
       <c r="K44" s="1">
-        <v>334985.5306</v>
+        <v>335261.6846</v>
       </c>
       <c r="L44" s="1">
-        <v>11.2375</v>
+        <v>11.2468</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.3637</v>
@@ -6681,10 +6684,10 @@
         <v>654600.4095</v>
       </c>
       <c r="K45" s="1">
-        <v>308781.3152</v>
+        <v>309162.2055</v>
       </c>
       <c r="L45" s="1">
-        <v>10.9872</v>
+        <v>11.0007</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.6447</v>
@@ -6734,10 +6737,10 @@
         <v>643971.527</v>
       </c>
       <c r="K46" s="1">
-        <v>317901.5648</v>
+        <v>318282.4551</v>
       </c>
       <c r="L46" s="1">
-        <v>11.0781</v>
+        <v>11.0914</v>
       </c>
       <c r="M46" s="1">
         <v>1</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>15.486</v>
@@ -6787,10 +6790,10 @@
         <v>705526.3308</v>
       </c>
       <c r="K47" s="1">
-        <v>348616.672</v>
+        <v>348997.5623</v>
       </c>
       <c r="L47" s="1">
-        <v>11.3226</v>
+        <v>11.335</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.1958</v>
@@ -6840,10 +6843,10 @@
         <v>736611.0283</v>
       </c>
       <c r="K48" s="1">
-        <v>332702.2692</v>
+        <v>333146.7474</v>
       </c>
       <c r="L48" s="1">
-        <v>11.1781</v>
+        <v>11.193</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.4264</v>
@@ -6893,10 +6896,10 @@
         <v>753304.7933</v>
       </c>
       <c r="K49" s="1">
-        <v>321573.1325</v>
+        <v>322062.0499</v>
       </c>
       <c r="L49" s="1">
-        <v>11.059</v>
+        <v>11.0758</v>
       </c>
       <c r="M49" s="1">
         <v>0.75</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>17.107</v>
@@ -6946,10 +6949,10 @@
         <v>802806.0054</v>
       </c>
       <c r="K50" s="1">
-        <v>324892.6179</v>
+        <v>325381.5352</v>
       </c>
       <c r="L50" s="1">
-        <v>11.0962</v>
+        <v>11.1129</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>16.8894</v>
@@ -6999,10 +7002,10 @@
         <v>806572.23</v>
       </c>
       <c r="K51" s="1">
-        <v>314966.1647</v>
+        <v>315494.7501</v>
       </c>
       <c r="L51" s="1">
-        <v>10.9742</v>
+        <v>10.9926</v>
       </c>
       <c r="M51" s="1">
         <v>1</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>16.4004</v>
@@ -7052,10 +7055,10 @@
         <v>827861.7836</v>
       </c>
       <c r="K52" s="1">
-        <v>331265.0462</v>
+        <v>331793.6316</v>
       </c>
       <c r="L52" s="1">
-        <v>11.1673</v>
+        <v>11.1852</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>15.3877</v>
@@ -7105,10 +7108,10 @@
         <v>806271.0149</v>
       </c>
       <c r="K53" s="1">
-        <v>355839.1944</v>
+        <v>356367.7798</v>
       </c>
       <c r="L53" s="1">
-        <v>11.4201</v>
+        <v>11.437</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>14.6367</v>
@@ -7158,10 +7161,10 @@
         <v>790725.759</v>
       </c>
       <c r="K54" s="1">
-        <v>397498.1521</v>
+        <v>398026.7375</v>
       </c>
       <c r="L54" s="1">
-        <v>11.7391</v>
+        <v>11.7547</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.0061</v>
@@ -7211,10 +7214,10 @@
         <v>741540.5379</v>
       </c>
       <c r="K55" s="1">
-        <v>433018.9</v>
+        <v>433547.4854</v>
       </c>
       <c r="L55" s="1">
-        <v>11.9345</v>
+        <v>11.9491</v>
       </c>
       <c r="M55" s="1">
         <v>0.5</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.835</v>
@@ -7264,10 +7267,10 @@
         <v>802004.0445</v>
       </c>
       <c r="K56" s="1">
-        <v>502339.3216</v>
+        <v>502867.907</v>
       </c>
       <c r="L56" s="1">
-        <v>12.0748</v>
+        <v>12.0875</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>14.4216</v>
@@ -7317,10 +7320,10 @@
         <v>835326.852</v>
       </c>
       <c r="K57" s="1">
-        <v>477828.0722</v>
+        <v>478454.6128</v>
       </c>
       <c r="L57" s="1">
-        <v>11.9955</v>
+        <v>12.0112</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.2404</v>
@@ -7370,10 +7373,10 @@
         <v>799457.8064</v>
       </c>
       <c r="K58" s="1">
-        <v>464451.8543</v>
+        <v>465131.8053</v>
       </c>
       <c r="L58" s="1">
-        <v>11.9371</v>
+        <v>11.9546</v>
       </c>
       <c r="M58" s="1">
         <v>0.4</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.382</v>
@@ -7423,10 +7426,10 @@
         <v>786285.7742</v>
       </c>
       <c r="K59" s="1">
-        <v>520544.9866</v>
+        <v>521224.9377</v>
       </c>
       <c r="L59" s="1">
-        <v>12.0674</v>
+        <v>12.0832</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.9583</v>
@@ -7476,10 +7479,10 @@
         <v>776252.6789000001</v>
       </c>
       <c r="K60" s="1">
-        <v>567688.4059</v>
+        <v>568368.3569</v>
       </c>
       <c r="L60" s="1">
-        <v>12.0949</v>
+        <v>12.1094</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.2036</v>
@@ -7529,10 +7532,10 @@
         <v>798235.0527999999</v>
       </c>
       <c r="K61" s="1">
-        <v>597652.8155</v>
+        <v>598332.7666</v>
       </c>
       <c r="L61" s="1">
-        <v>12.0892</v>
+        <v>12.103</v>
       </c>
       <c r="M61" s="1">
         <v>0.4</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.9136</v>
@@ -7582,10 +7585,10 @@
         <v>860941.0414</v>
       </c>
       <c r="K62" s="1">
-        <v>595542.2168000001</v>
+        <v>596230.6081</v>
       </c>
       <c r="L62" s="1">
-        <v>12.0887</v>
+        <v>12.1027</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.0976</v>
@@ -8403,10 +8406,10 @@
         <v>161469.5451</v>
       </c>
       <c r="K15" s="1">
-        <v>108187.5192</v>
+        <v>108189.5979</v>
       </c>
       <c r="L15" s="1">
-        <v>8.9354</v>
+        <v>8.935600000000001</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>10.8505</v>
@@ -8456,10 +8459,10 @@
         <v>168206.7345</v>
       </c>
       <c r="K16" s="1">
-        <v>118773.7299</v>
+        <v>118775.8086</v>
       </c>
       <c r="L16" s="1">
-        <v>9.0946</v>
+        <v>9.094799999999999</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>11.8576</v>
@@ -8509,10 +8512,10 @@
         <v>198448.2258</v>
       </c>
       <c r="K17" s="1">
-        <v>132773.4954</v>
+        <v>132775.5741</v>
       </c>
       <c r="L17" s="1">
-        <v>9.254200000000001</v>
+        <v>9.254300000000001</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5699</v>
@@ -8562,10 +8565,10 @@
         <v>218428.9222</v>
       </c>
       <c r="K18" s="1">
-        <v>129115.0929</v>
+        <v>129131.7973</v>
       </c>
       <c r="L18" s="1">
-        <v>9.1965</v>
+        <v>9.197699999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5994</v>
@@ -8615,10 +8618,10 @@
         <v>242919.334</v>
       </c>
       <c r="K19" s="1">
-        <v>129968.5162</v>
+        <v>129985.2207</v>
       </c>
       <c r="L19" s="1">
-        <v>9.212899999999999</v>
+        <v>9.2141</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6663</v>
@@ -8668,10 +8671,10 @@
         <v>274005.904</v>
       </c>
       <c r="K20" s="1">
-        <v>126345.0958</v>
+        <v>126376.2656</v>
       </c>
       <c r="L20" s="1">
-        <v>9.1281</v>
+        <v>9.1303</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.701</v>
@@ -8721,10 +8724,10 @@
         <v>284475.8352</v>
       </c>
       <c r="K21" s="1">
-        <v>122530.856</v>
+        <v>122577.2613</v>
       </c>
       <c r="L21" s="1">
-        <v>9.021699999999999</v>
+        <v>9.0251</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8109</v>
@@ -8774,10 +8777,10 @@
         <v>281731.6662</v>
       </c>
       <c r="K22" s="1">
-        <v>133097.1602</v>
+        <v>133143.5654</v>
       </c>
       <c r="L22" s="1">
-        <v>9.3081</v>
+        <v>9.311299999999999</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.9322</v>
@@ -8827,10 +8830,10 @@
         <v>306444.2924</v>
       </c>
       <c r="K23" s="1">
-        <v>156943.3264</v>
+        <v>156989.7317</v>
       </c>
       <c r="L23" s="1">
-        <v>9.795299999999999</v>
+        <v>9.7982</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.5846</v>
@@ -8880,10 +8883,10 @@
         <v>293972.5867</v>
       </c>
       <c r="K24" s="1">
-        <v>166145.6117</v>
+        <v>166192.0169</v>
       </c>
       <c r="L24" s="1">
-        <v>9.959899999999999</v>
+        <v>9.9627</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2867</v>
@@ -8933,10 +8936,10 @@
         <v>298083.1334</v>
       </c>
       <c r="K25" s="1">
-        <v>199875.0694</v>
+        <v>199921.4747</v>
       </c>
       <c r="L25" s="1">
-        <v>10.3261</v>
+        <v>10.3285</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0645</v>
@@ -8986,10 +8989,10 @@
         <v>332826.0864</v>
       </c>
       <c r="K26" s="1">
-        <v>216913.3203</v>
+        <v>216959.7256</v>
       </c>
       <c r="L26" s="1">
-        <v>10.4585</v>
+        <v>10.4608</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8083</v>
@@ -9039,10 +9042,10 @@
         <v>357946.6771</v>
       </c>
       <c r="K27" s="1">
-        <v>212064.8577</v>
+        <v>212130.6335</v>
       </c>
       <c r="L27" s="1">
-        <v>10.4107</v>
+        <v>10.4139</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.5636</v>
@@ -9092,10 +9095,10 @@
         <v>363039.5501</v>
       </c>
       <c r="K28" s="1">
-        <v>208257.0033</v>
+        <v>208337.9985</v>
       </c>
       <c r="L28" s="1">
-        <v>10.3638</v>
+        <v>10.3678</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.1788</v>
@@ -9145,10 +9148,10 @@
         <v>373836.1591</v>
       </c>
       <c r="K29" s="1">
-        <v>224614.0781</v>
+        <v>224695.0733</v>
       </c>
       <c r="L29" s="1">
-        <v>10.5461</v>
+        <v>10.5499</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.5668</v>
@@ -9198,10 +9201,10 @@
         <v>415328.5866</v>
       </c>
       <c r="K30" s="1">
-        <v>244315.0255</v>
+        <v>244396.0207</v>
       </c>
       <c r="L30" s="1">
-        <v>10.7202</v>
+        <v>10.7238</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.962</v>
@@ -9251,10 +9254,10 @@
         <v>412405.8515</v>
       </c>
       <c r="K31" s="1">
-        <v>224162.0556</v>
+        <v>224323.5466</v>
       </c>
       <c r="L31" s="1">
-        <v>10.4702</v>
+        <v>10.4778</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2659</v>
@@ -9304,10 +9307,10 @@
         <v>392728.4651</v>
       </c>
       <c r="K32" s="1">
-        <v>248739.2136</v>
+        <v>248900.7047</v>
       </c>
       <c r="L32" s="1">
-        <v>10.7372</v>
+        <v>10.7441</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.4103</v>
@@ -9357,10 +9360,10 @@
         <v>406461.1635</v>
       </c>
       <c r="K33" s="1">
-        <v>299770.5112</v>
+        <v>299932.0022</v>
       </c>
       <c r="L33" s="1">
-        <v>10.9733</v>
+        <v>10.9792</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.3976</v>
@@ -9410,10 +9413,10 @@
         <v>416075.2486</v>
       </c>
       <c r="K34" s="1">
-        <v>307537.0565</v>
+        <v>307698.5476</v>
       </c>
       <c r="L34" s="1">
-        <v>11.0059</v>
+        <v>11.0117</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9013</v>
@@ -9463,10 +9466,10 @@
         <v>453138.9788</v>
       </c>
       <c r="K35" s="1">
-        <v>319670.8095</v>
+        <v>319832.3005</v>
       </c>
       <c r="L35" s="1">
-        <v>11.0538</v>
+        <v>11.0594</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3527</v>
@@ -9516,10 +9519,10 @@
         <v>476071.0895</v>
       </c>
       <c r="K36" s="1">
-        <v>316910.9625</v>
+        <v>317083.4911</v>
       </c>
       <c r="L36" s="1">
-        <v>11.0398</v>
+        <v>11.0458</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8804</v>
@@ -9569,10 +9572,10 @@
         <v>501144.8972</v>
       </c>
       <c r="K37" s="1">
-        <v>315822.5283</v>
+        <v>315999.4092</v>
       </c>
       <c r="L37" s="1">
-        <v>11.0332</v>
+        <v>11.0394</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6268</v>
@@ -9622,10 +9625,10 @@
         <v>545181.2078</v>
       </c>
       <c r="K38" s="1">
-        <v>312643.2801</v>
+        <v>312832.8704</v>
       </c>
       <c r="L38" s="1">
-        <v>11.01</v>
+        <v>11.0167</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3636</v>
@@ -9675,10 +9678,10 @@
         <v>575598.0963</v>
       </c>
       <c r="K39" s="1">
-        <v>303418.102</v>
+        <v>303644.5148</v>
       </c>
       <c r="L39" s="1">
-        <v>10.9274</v>
+        <v>10.9355</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.8711</v>
@@ -9728,10 +9731,10 @@
         <v>545054.5906</v>
       </c>
       <c r="K40" s="1">
-        <v>294994.1996</v>
+        <v>295254.2655</v>
       </c>
       <c r="L40" s="1">
-        <v>10.8376</v>
+        <v>10.8471</v>
       </c>
       <c r="M40" s="1">
         <v>0.5</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1252</v>
@@ -9781,10 +9784,10 @@
         <v>574959.4023</v>
       </c>
       <c r="K41" s="1">
-        <v>347835.4795</v>
+        <v>348095.5454</v>
       </c>
       <c r="L41" s="1">
-        <v>11.2128</v>
+        <v>11.2212</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.1934</v>
@@ -9834,10 +9837,10 @@
         <v>587072.3473</v>
       </c>
       <c r="K42" s="1">
-        <v>352132.8205</v>
+        <v>352392.8864</v>
       </c>
       <c r="L42" s="1">
-        <v>11.2413</v>
+        <v>11.2496</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.1176</v>
@@ -9887,10 +9890,10 @@
         <v>594609.9801</v>
       </c>
       <c r="K43" s="1">
-        <v>362251.0741</v>
+        <v>362511.14</v>
       </c>
       <c r="L43" s="1">
-        <v>11.3075</v>
+        <v>11.3156</v>
       </c>
       <c r="M43" s="1">
         <v>0.5</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3311</v>
@@ -9940,10 +9943,10 @@
         <v>659026.3260999999</v>
       </c>
       <c r="K44" s="1">
-        <v>377000.9246</v>
+        <v>377260.9905</v>
       </c>
       <c r="L44" s="1">
-        <v>11.3969</v>
+        <v>11.4048</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.3637</v>
@@ -9993,10 +9996,10 @@
         <v>670045.6263</v>
       </c>
       <c r="K45" s="1">
-        <v>349161.1254</v>
+        <v>349532.465</v>
       </c>
       <c r="L45" s="1">
-        <v>11.1671</v>
+        <v>11.179</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.6447</v>
@@ -10046,10 +10049,10 @@
         <v>657030.6470999999</v>
       </c>
       <c r="K46" s="1">
-        <v>360579.4192</v>
+        <v>360950.7588</v>
       </c>
       <c r="L46" s="1">
-        <v>11.2651</v>
+        <v>11.2767</v>
       </c>
       <c r="M46" s="1">
         <v>1</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>15.486</v>
@@ -10099,10 +10102,10 @@
         <v>724605.6969</v>
       </c>
       <c r="K47" s="1">
-        <v>396144.7502</v>
+        <v>396516.0898</v>
       </c>
       <c r="L47" s="1">
-        <v>11.505</v>
+        <v>11.5158</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.1958</v>
@@ -10152,10 +10155,10 @@
         <v>758246.1278</v>
       </c>
       <c r="K48" s="1">
-        <v>379685.8471</v>
+        <v>380122.9501</v>
       </c>
       <c r="L48" s="1">
-        <v>11.3775</v>
+        <v>11.3906</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.4264</v>
@@ -10205,10 +10208,10 @@
         <v>775770.7263</v>
       </c>
       <c r="K49" s="1">
-        <v>368579.8586</v>
+        <v>369061.3084</v>
       </c>
       <c r="L49" s="1">
-        <v>11.276</v>
+        <v>11.2907</v>
       </c>
       <c r="M49" s="1">
         <v>0.75</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>17.107</v>
@@ -10258,10 +10261,10 @@
         <v>830227.2593</v>
       </c>
       <c r="K50" s="1">
-        <v>373717.4509</v>
+        <v>374198.9007</v>
       </c>
       <c r="L50" s="1">
-        <v>11.325</v>
+        <v>11.3396</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>16.8894</v>
@@ -10311,10 +10314,10 @@
         <v>833183.3067</v>
       </c>
       <c r="K51" s="1">
-        <v>363970.2248</v>
+        <v>364490.6264</v>
       </c>
       <c r="L51" s="1">
-        <v>11.223</v>
+        <v>11.2391</v>
       </c>
       <c r="M51" s="1">
         <v>1</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>16.4004</v>
@@ -10364,10 +10367,10 @@
         <v>855891.7017</v>
       </c>
       <c r="K52" s="1">
-        <v>383862.0517</v>
+        <v>384382.4533</v>
       </c>
       <c r="L52" s="1">
-        <v>11.4224</v>
+        <v>11.4379</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>15.3877</v>
@@ -10417,10 +10420,10 @@
         <v>830003.5586</v>
       </c>
       <c r="K53" s="1">
-        <v>413211.4438</v>
+        <v>413731.8454</v>
       </c>
       <c r="L53" s="1">
-        <v>11.6752</v>
+        <v>11.6899</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>14.6367</v>
@@ -10470,10 +10473,10 @@
         <v>810906.7328999999</v>
       </c>
       <c r="K54" s="1">
-        <v>462073.8833</v>
+        <v>462594.2849</v>
       </c>
       <c r="L54" s="1">
-        <v>11.9829</v>
+        <v>11.9964</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.0061</v>
@@ -10523,10 +10526,10 @@
         <v>753324.5874</v>
       </c>
       <c r="K55" s="1">
-        <v>504104.3336</v>
+        <v>504624.7352</v>
       </c>
       <c r="L55" s="1">
-        <v>12.1685</v>
+        <v>12.1811</v>
       </c>
       <c r="M55" s="1">
         <v>0.5</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.835</v>
@@ -10576,10 +10579,10 @@
         <v>821038.6192</v>
       </c>
       <c r="K56" s="1">
-        <v>584867.1195</v>
+        <v>585387.5211</v>
       </c>
       <c r="L56" s="1">
-        <v>12.2809</v>
+        <v>12.2918</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>14.4216</v>
@@ -10629,10 +10632,10 @@
         <v>857807.17</v>
       </c>
       <c r="K57" s="1">
-        <v>558457.6725</v>
+        <v>559083.6151000001</v>
       </c>
       <c r="L57" s="1">
-        <v>12.215</v>
+        <v>12.2287</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.2404</v>
@@ -10682,10 +10685,10 @@
         <v>815023.8541</v>
       </c>
       <c r="K58" s="1">
-        <v>544790.8395</v>
+        <v>545471.353</v>
       </c>
       <c r="L58" s="1">
-        <v>12.1677</v>
+        <v>12.1829</v>
       </c>
       <c r="M58" s="1">
         <v>0.4</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.382</v>
@@ -10735,10 +10738,10 @@
         <v>798240.8393</v>
       </c>
       <c r="K59" s="1">
-        <v>611060.9685</v>
+        <v>611741.482</v>
       </c>
       <c r="L59" s="1">
-        <v>12.2781</v>
+        <v>12.2917</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.9583</v>
@@ -10788,10 +10791,10 @@
         <v>785060.7772</v>
       </c>
       <c r="K60" s="1">
-        <v>667210.3054</v>
+        <v>667890.8189</v>
       </c>
       <c r="L60" s="1">
-        <v>12.2888</v>
+        <v>12.3013</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.2036</v>
@@ -10841,10 +10844,10 @@
         <v>808951.0623</v>
       </c>
       <c r="K61" s="1">
-        <v>703666.2496</v>
+        <v>704346.7631</v>
       </c>
       <c r="L61" s="1">
-        <v>12.2725</v>
+        <v>12.2844</v>
       </c>
       <c r="M61" s="1">
         <v>0.4</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.9136</v>
@@ -10894,10 +10897,10 @@
         <v>880185.2822</v>
       </c>
       <c r="K62" s="1">
-        <v>703049.1564</v>
+        <v>703732.1376</v>
       </c>
       <c r="L62" s="1">
-        <v>12.2726</v>
+        <v>12.2845</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.0976</v>
@@ -11715,10 +11718,10 @@
         <v>162075.2868</v>
       </c>
       <c r="K15" s="1">
-        <v>111810.5225</v>
+        <v>111811.2437</v>
       </c>
       <c r="L15" s="1">
-        <v>8.959</v>
+        <v>8.959099999999999</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>10.8505</v>
@@ -11768,7 +11771,7 @@
         <v>168702.055</v>
       </c>
       <c r="K16" s="1">
-        <v>123106.7659</v>
+        <v>123107.4871</v>
       </c>
       <c r="L16" s="1">
         <v>9.121700000000001</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>11.8576</v>
@@ -11821,7 +11824,7 @@
         <v>199656.4397</v>
       </c>
       <c r="K17" s="1">
-        <v>137989.1797</v>
+        <v>137989.9009</v>
       </c>
       <c r="L17" s="1">
         <v>9.2829</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5699</v>
@@ -11874,10 +11877,10 @@
         <v>220023.7876</v>
       </c>
       <c r="K18" s="1">
-        <v>134644.7948</v>
+        <v>134658.8863</v>
       </c>
       <c r="L18" s="1">
-        <v>9.232699999999999</v>
+        <v>9.233700000000001</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5994</v>
@@ -11927,10 +11930,10 @@
         <v>245112.5928</v>
       </c>
       <c r="K19" s="1">
-        <v>136008.6802</v>
+        <v>136022.7717</v>
       </c>
       <c r="L19" s="1">
-        <v>9.2575</v>
+        <v>9.2585</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6663</v>
@@ -11980,10 +11983,10 @@
         <v>277112.5073</v>
       </c>
       <c r="K20" s="1">
-        <v>132744.441</v>
+        <v>132771.564</v>
       </c>
       <c r="L20" s="1">
-        <v>9.1851</v>
+        <v>9.186999999999999</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.701</v>
@@ -12033,10 +12036,10 @@
         <v>287604.4503</v>
       </c>
       <c r="K21" s="1">
-        <v>129303.5217</v>
+        <v>129344.389</v>
       </c>
       <c r="L21" s="1">
-        <v>9.0944</v>
+        <v>9.097200000000001</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8109</v>
@@ -12086,10 +12089,10 @@
         <v>284226.3993</v>
       </c>
       <c r="K22" s="1">
-        <v>140939.1935</v>
+        <v>140980.0608</v>
       </c>
       <c r="L22" s="1">
-        <v>9.391</v>
+        <v>9.393700000000001</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.9322</v>
@@ -12139,10 +12142,10 @@
         <v>309671.1832</v>
       </c>
       <c r="K23" s="1">
-        <v>166575.0623</v>
+        <v>166615.9296</v>
       </c>
       <c r="L23" s="1">
-        <v>9.8797</v>
+        <v>9.882099999999999</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.5846</v>
@@ -12192,10 +12195,10 @@
         <v>295959.6553</v>
       </c>
       <c r="K24" s="1">
-        <v>176900.1439</v>
+        <v>176941.0111</v>
       </c>
       <c r="L24" s="1">
-        <v>10.0511</v>
+        <v>10.0535</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2867</v>
@@ -12245,10 +12248,10 @@
         <v>299727.2809</v>
       </c>
       <c r="K25" s="1">
-        <v>213162.4965</v>
+        <v>213203.3638</v>
       </c>
       <c r="L25" s="1">
-        <v>10.4105</v>
+        <v>10.4125</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0645</v>
@@ -12298,10 +12301,10 @@
         <v>335943.0998</v>
       </c>
       <c r="K26" s="1">
-        <v>231896.4314</v>
+        <v>231937.2987</v>
       </c>
       <c r="L26" s="1">
-        <v>10.542</v>
+        <v>10.5438</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8083</v>
@@ -12351,10 +12354,10 @@
         <v>362022.4707</v>
       </c>
       <c r="K27" s="1">
-        <v>227499.6092</v>
+        <v>227558.0427</v>
       </c>
       <c r="L27" s="1">
-        <v>10.5025</v>
+        <v>10.5052</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.5636</v>
@@ -12404,10 +12407,10 @@
         <v>366790.4004</v>
       </c>
       <c r="K28" s="1">
-        <v>224231.4961</v>
+        <v>224302.9917</v>
       </c>
       <c r="L28" s="1">
-        <v>10.4657</v>
+        <v>10.469</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.1788</v>
@@ -12457,10 +12460,10 @@
         <v>377613.3941</v>
       </c>
       <c r="K29" s="1">
-        <v>242489.0751</v>
+        <v>242560.5706</v>
       </c>
       <c r="L29" s="1">
-        <v>10.6501</v>
+        <v>10.6532</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.5668</v>
@@ -12510,10 +12513,10 @@
         <v>421366.3123</v>
       </c>
       <c r="K30" s="1">
-        <v>264404.2582</v>
+        <v>264475.7538</v>
       </c>
       <c r="L30" s="1">
-        <v>10.8237</v>
+        <v>10.8266</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.962</v>
@@ -12563,10 +12566,10 @@
         <v>417477.8334</v>
       </c>
       <c r="K31" s="1">
-        <v>243693.9013</v>
+        <v>243848.119</v>
       </c>
       <c r="L31" s="1">
-        <v>10.5911</v>
+        <v>10.5978</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2659</v>
@@ -12616,10 +12619,10 @@
         <v>395466.4883</v>
       </c>
       <c r="K32" s="1">
-        <v>271036.6728</v>
+        <v>271190.8905</v>
       </c>
       <c r="L32" s="1">
-        <v>10.8572</v>
+        <v>10.8633</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.4103</v>
@@ -12669,10 +12672,10 @@
         <v>409496.3133</v>
       </c>
       <c r="K33" s="1">
-        <v>326995.0381</v>
+        <v>327149.2559</v>
       </c>
       <c r="L33" s="1">
-        <v>11.0783</v>
+        <v>11.0835</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.3976</v>
@@ -12722,10 +12725,10 @@
         <v>419074.2929</v>
       </c>
       <c r="K34" s="1">
-        <v>336392.495</v>
+        <v>336546.7128</v>
       </c>
       <c r="L34" s="1">
-        <v>11.1121</v>
+        <v>11.1172</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9013</v>
@@ -12775,10 +12778,10 @@
         <v>458432.5435</v>
       </c>
       <c r="K35" s="1">
-        <v>350583.023</v>
+        <v>350737.2407</v>
       </c>
       <c r="L35" s="1">
-        <v>11.1598</v>
+        <v>11.1647</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3527</v>
@@ -12828,10 +12831,10 @@
         <v>482518.2825</v>
       </c>
       <c r="K36" s="1">
-        <v>348670.0105</v>
+        <v>348831.8791</v>
       </c>
       <c r="L36" s="1">
-        <v>11.1514</v>
+        <v>11.1566</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8804</v>
@@ -12881,10 +12884,10 @@
         <v>508981.0629</v>
       </c>
       <c r="K37" s="1">
-        <v>348609.8006</v>
+        <v>348771.9099</v>
       </c>
       <c r="L37" s="1">
-        <v>11.1511</v>
+        <v>11.1563</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6268</v>
@@ -12934,10 +12937,10 @@
         <v>556216.1115999999</v>
       </c>
       <c r="K38" s="1">
-        <v>346303.8294</v>
+        <v>346475.1571</v>
       </c>
       <c r="L38" s="1">
-        <v>11.1364</v>
+        <v>11.1419</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3636</v>
@@ -12987,10 +12990,10 @@
         <v>588635.1893</v>
       </c>
       <c r="K39" s="1">
-        <v>337409.0454</v>
+        <v>337615.8767</v>
       </c>
       <c r="L39" s="1">
-        <v>11.0663</v>
+        <v>11.0731</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.8711</v>
@@ -13040,10 +13043,10 @@
         <v>553994.8527</v>
       </c>
       <c r="K40" s="1">
-        <v>329408.7716</v>
+        <v>329647.5637</v>
       </c>
       <c r="L40" s="1">
-        <v>10.9913</v>
+        <v>10.9992</v>
       </c>
       <c r="M40" s="1">
         <v>0.5</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1252</v>
@@ -13093,10 +13096,10 @@
         <v>585929.4205</v>
       </c>
       <c r="K41" s="1">
-        <v>388881.8639</v>
+        <v>389120.656</v>
       </c>
       <c r="L41" s="1">
-        <v>11.3545</v>
+        <v>11.3615</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.1934</v>
@@ -13146,10 +13149,10 @@
         <v>598263.2921</v>
       </c>
       <c r="K42" s="1">
-        <v>394961.8152</v>
+        <v>395200.6074</v>
       </c>
       <c r="L42" s="1">
-        <v>11.3892</v>
+        <v>11.3961</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.1176</v>
@@ -13199,10 +13202,10 @@
         <v>605524.4703</v>
       </c>
       <c r="K43" s="1">
-        <v>407542.5559</v>
+        <v>407781.3481</v>
       </c>
       <c r="L43" s="1">
-        <v>11.4597</v>
+        <v>11.4664</v>
       </c>
       <c r="M43" s="1">
         <v>0.5</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3311</v>
@@ -13252,10 +13255,10 @@
         <v>676047.3985</v>
       </c>
       <c r="K44" s="1">
-        <v>425339.7392</v>
+        <v>425578.5314</v>
       </c>
       <c r="L44" s="1">
-        <v>11.5515</v>
+        <v>11.5579</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.3637</v>
@@ -13305,10 +13308,10 @@
         <v>687185.1254</v>
       </c>
       <c r="K45" s="1">
-        <v>395819.063</v>
+        <v>396175.8471</v>
       </c>
       <c r="L45" s="1">
-        <v>11.3417</v>
+        <v>11.3519</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.6447</v>
@@ -13358,10 +13361,10 @@
         <v>671419.5403</v>
       </c>
       <c r="K46" s="1">
-        <v>410078.0779</v>
+        <v>410434.862</v>
       </c>
       <c r="L46" s="1">
-        <v>11.4464</v>
+        <v>11.4564</v>
       </c>
       <c r="M46" s="1">
         <v>1</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>15.486</v>
@@ -13411,10 +13414,10 @@
         <v>745943.8594</v>
       </c>
       <c r="K47" s="1">
-        <v>451445.0722</v>
+        <v>451801.8563</v>
       </c>
       <c r="L47" s="1">
-        <v>11.6819</v>
+        <v>11.6911</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.1958</v>
@@ -13464,10 +13467,10 @@
         <v>782549.9449999999</v>
       </c>
       <c r="K48" s="1">
-        <v>434579.529</v>
+        <v>435003.7014</v>
       </c>
       <c r="L48" s="1">
-        <v>11.5709</v>
+        <v>11.5822</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.4264</v>
@@ -13517,10 +13520,10 @@
         <v>801041.9606</v>
       </c>
       <c r="K49" s="1">
-        <v>423734.7281</v>
+        <v>424202.2044</v>
       </c>
       <c r="L49" s="1">
-        <v>11.4865</v>
+        <v>11.4992</v>
       </c>
       <c r="M49" s="1">
         <v>0.75</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>17.107</v>
@@ -13570,10 +13573,10 @@
         <v>861277.6054</v>
       </c>
       <c r="K50" s="1">
-        <v>431235.2867</v>
+        <v>431702.7629</v>
       </c>
       <c r="L50" s="1">
-        <v>11.5472</v>
+        <v>11.5597</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>16.8894</v>
@@ -13623,10 +13626,10 @@
         <v>863283.7638</v>
       </c>
       <c r="K51" s="1">
-        <v>421955.4459</v>
+        <v>422460.0061</v>
       </c>
       <c r="L51" s="1">
-        <v>11.4649</v>
+        <v>11.4786</v>
       </c>
       <c r="M51" s="1">
         <v>1</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>16.4004</v>
@@ -13676,10 +13679,10 @@
         <v>887646.7987</v>
       </c>
       <c r="K52" s="1">
-        <v>446330.136</v>
+        <v>446834.6962</v>
       </c>
       <c r="L52" s="1">
-        <v>11.6705</v>
+        <v>11.6837</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>15.3877</v>
@@ -13729,10 +13732,10 @@
         <v>856684.2645</v>
       </c>
       <c r="K53" s="1">
-        <v>481580.6381</v>
+        <v>482085.1984</v>
       </c>
       <c r="L53" s="1">
-        <v>11.9234</v>
+        <v>11.9359</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>14.6367</v>
@@ -13782,10 +13785,10 @@
         <v>833378.9958</v>
       </c>
       <c r="K54" s="1">
-        <v>539243.3972</v>
+        <v>539747.9575</v>
       </c>
       <c r="L54" s="1">
-        <v>12.2196</v>
+        <v>12.2311</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.0061</v>
@@ -13835,10 +13838,10 @@
         <v>765813.8214</v>
       </c>
       <c r="K55" s="1">
-        <v>589295.1695</v>
+        <v>589799.7298</v>
       </c>
       <c r="L55" s="1">
-        <v>12.3952</v>
+        <v>12.4059</v>
       </c>
       <c r="M55" s="1">
         <v>0.5</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.835</v>
@@ -13888,10 +13891,10 @@
         <v>842166.1976</v>
       </c>
       <c r="K56" s="1">
-        <v>683983.5575999999</v>
+        <v>684488.1179</v>
       </c>
       <c r="L56" s="1">
-        <v>12.4797</v>
+        <v>12.4889</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>14.4216</v>
@@ -13941,10 +13944,10 @@
         <v>883059.3583</v>
       </c>
       <c r="K57" s="1">
-        <v>655647.4258</v>
+        <v>656265.2267999999</v>
       </c>
       <c r="L57" s="1">
-        <v>12.4261</v>
+        <v>12.4378</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.2404</v>
@@ -13994,10 +13997,10 @@
         <v>831970.8143</v>
       </c>
       <c r="K58" s="1">
-        <v>641984.9574</v>
+        <v>642657.3118</v>
       </c>
       <c r="L58" s="1">
-        <v>12.3892</v>
+        <v>12.4021</v>
       </c>
       <c r="M58" s="1">
         <v>0.4</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.382</v>
@@ -14047,10 +14050,10 @@
         <v>810825.2071999999</v>
       </c>
       <c r="K59" s="1">
-        <v>720846.6445000001</v>
+        <v>721518.9989</v>
       </c>
       <c r="L59" s="1">
-        <v>12.4795</v>
+        <v>12.4911</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.9583</v>
@@ -14100,10 +14103,10 @@
         <v>793837.3931</v>
       </c>
       <c r="K60" s="1">
-        <v>788233.8597</v>
+        <v>788906.2142</v>
       </c>
       <c r="L60" s="1">
-        <v>12.4732</v>
+        <v>12.4839</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.2036</v>
@@ -14153,10 +14156,10 @@
         <v>820041.9151</v>
       </c>
       <c r="K61" s="1">
-        <v>832939.9942</v>
+        <v>833612.3486</v>
       </c>
       <c r="L61" s="1">
-        <v>12.4459</v>
+        <v>12.4559</v>
       </c>
       <c r="M61" s="1">
         <v>0.4</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.9136</v>
@@ -14206,10 +14209,10 @@
         <v>901644.8344000001</v>
       </c>
       <c r="K62" s="1">
-        <v>834550.2922</v>
+        <v>835222.6466</v>
       </c>
       <c r="L62" s="1">
-        <v>12.4454</v>
+        <v>12.4555</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.3047</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>7.7888</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.244199999999999</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.9413</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>8.9801</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8.6477</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.568899999999999</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.429399999999999</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.603999999999999</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3595</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.0875</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.1692</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.0872</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.0976</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>10.8505</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>11.8576</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.5699</v>
@@ -15186,10 +15189,10 @@
         <v>221679.4444</v>
       </c>
       <c r="K18" s="1">
-        <v>140451.1078</v>
+        <v>140463.0756</v>
       </c>
       <c r="L18" s="1">
-        <v>9.268599999999999</v>
+        <v>9.269399999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5994</v>
@@ -15239,10 +15242,10 @@
         <v>247397.3741</v>
       </c>
       <c r="K19" s="1">
-        <v>142376.1063</v>
+        <v>142388.0741</v>
       </c>
       <c r="L19" s="1">
-        <v>9.3018</v>
+        <v>9.3026</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6663</v>
@@ -15292,10 +15295,10 @@
         <v>280360.011</v>
       </c>
       <c r="K20" s="1">
-        <v>139519.2872</v>
+        <v>139542.66</v>
       </c>
       <c r="L20" s="1">
-        <v>9.2418</v>
+        <v>9.2433</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.701</v>
@@ -15345,10 +15348,10 @@
         <v>290875.2575</v>
       </c>
       <c r="K21" s="1">
-        <v>136505.8219</v>
+        <v>136541.2315</v>
       </c>
       <c r="L21" s="1">
-        <v>9.166700000000001</v>
+        <v>9.1691</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8109</v>
@@ -15398,10 +15401,10 @@
         <v>286823.7048</v>
       </c>
       <c r="K22" s="1">
-        <v>149311.2855</v>
+        <v>149346.6952</v>
       </c>
       <c r="L22" s="1">
-        <v>9.473599999999999</v>
+        <v>9.4758</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.9322</v>
@@ -15451,10 +15454,10 @@
         <v>313046.4519</v>
       </c>
       <c r="K23" s="1">
-        <v>176890.3936</v>
+        <v>176925.8032</v>
       </c>
       <c r="L23" s="1">
-        <v>9.9636</v>
+        <v>9.9655</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.5846</v>
@@ -15504,10 +15507,10 @@
         <v>298008.6894</v>
       </c>
       <c r="K24" s="1">
-        <v>188459.0095</v>
+        <v>188494.4191</v>
       </c>
       <c r="L24" s="1">
-        <v>10.1418</v>
+        <v>10.1437</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.2867</v>
@@ -15557,10 +15560,10 @@
         <v>301408.1148</v>
       </c>
       <c r="K25" s="1">
-        <v>227482.1392</v>
+        <v>227517.5489</v>
       </c>
       <c r="L25" s="1">
-        <v>10.4941</v>
+        <v>10.4958</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0645</v>
@@ -15610,10 +15613,10 @@
         <v>339208.0105</v>
       </c>
       <c r="K26" s="1">
-        <v>248092.8815</v>
+        <v>248128.2911</v>
       </c>
       <c r="L26" s="1">
-        <v>10.6244</v>
+        <v>10.6259</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8083</v>
@@ -15663,10 +15666,10 @@
         <v>366323.4406</v>
       </c>
       <c r="K27" s="1">
-        <v>244244.9708</v>
+        <v>244295.7536</v>
       </c>
       <c r="L27" s="1">
-        <v>10.593</v>
+        <v>10.5952</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.5636</v>
@@ -15716,10 +15719,10 @@
         <v>370739.0282</v>
       </c>
       <c r="K28" s="1">
-        <v>241628.5368</v>
+        <v>241689.7771</v>
       </c>
       <c r="L28" s="1">
-        <v>10.5661</v>
+        <v>10.5688</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.1788</v>
@@ -15769,10 +15772,10 @@
         <v>381588.2232</v>
       </c>
       <c r="K29" s="1">
-        <v>262021.5217</v>
+        <v>262082.7619</v>
       </c>
       <c r="L29" s="1">
-        <v>10.7524</v>
+        <v>10.7549</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.5668</v>
@@ -15822,10 +15825,10 @@
         <v>427808.8719</v>
       </c>
       <c r="K30" s="1">
-        <v>286427.1216</v>
+        <v>286488.3618</v>
       </c>
       <c r="L30" s="1">
-        <v>10.9253</v>
+        <v>10.9276</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.962</v>
@@ -15875,10 +15878,10 @@
         <v>422862.3427</v>
       </c>
       <c r="K31" s="1">
-        <v>265196.3096</v>
+        <v>265342.3509</v>
       </c>
       <c r="L31" s="1">
-        <v>10.7097</v>
+        <v>10.7156</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2659</v>
@@ -15928,10 +15931,10 @@
         <v>398282.0394</v>
       </c>
       <c r="K32" s="1">
-        <v>295664.3856</v>
+        <v>295810.4269</v>
       </c>
       <c r="L32" s="1">
-        <v>10.9749</v>
+        <v>10.9803</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.4103</v>
@@ -15981,10 +15984,10 @@
         <v>412639.3129</v>
       </c>
       <c r="K33" s="1">
-        <v>357142.3901</v>
+        <v>357288.4314</v>
       </c>
       <c r="L33" s="1">
-        <v>11.1809</v>
+        <v>11.1855</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.3976</v>
@@ -16034,10 +16037,10 @@
         <v>422176.9049</v>
       </c>
       <c r="K34" s="1">
-        <v>368449.9722</v>
+        <v>368596.0135</v>
       </c>
       <c r="L34" s="1">
-        <v>11.2156</v>
+        <v>11.22</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9013</v>
@@ -16087,10 +16090,10 @@
         <v>464079.5672</v>
       </c>
       <c r="K35" s="1">
-        <v>385036.6572</v>
+        <v>385182.6985</v>
       </c>
       <c r="L35" s="1">
-        <v>11.2627</v>
+        <v>11.267</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3527</v>
@@ -16140,10 +16143,10 @@
         <v>489451.2869</v>
       </c>
       <c r="K36" s="1">
-        <v>384192.381</v>
+        <v>384341.7988</v>
       </c>
       <c r="L36" s="1">
-        <v>11.2596</v>
+        <v>11.2639</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8804</v>
@@ -16193,10 +16196,10 @@
         <v>517462.9002</v>
       </c>
       <c r="K37" s="1">
-        <v>385415.5159</v>
+        <v>385564.9337</v>
       </c>
       <c r="L37" s="1">
-        <v>11.2652</v>
+        <v>11.2696</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6268</v>
@@ -16246,10 +16249,10 @@
         <v>568283.9584999999</v>
       </c>
       <c r="K38" s="1">
-        <v>384233.098</v>
+        <v>384387.2427</v>
       </c>
       <c r="L38" s="1">
-        <v>11.2586</v>
+        <v>11.2631</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3636</v>
@@ -16299,10 +16302,10 @@
         <v>602958.3916</v>
       </c>
       <c r="K39" s="1">
-        <v>375865.8343</v>
+        <v>376053.3771</v>
       </c>
       <c r="L39" s="1">
-        <v>11.2008</v>
+        <v>11.2064</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.8711</v>
@@ -16352,10 +16355,10 @@
         <v>563687.041</v>
       </c>
       <c r="K40" s="1">
-        <v>368509.7804</v>
+        <v>368726.7103</v>
       </c>
       <c r="L40" s="1">
-        <v>11.1403</v>
+        <v>11.1468</v>
       </c>
       <c r="M40" s="1">
         <v>0.5</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1252</v>
@@ -16405,10 +16408,10 @@
         <v>597918.5583</v>
       </c>
       <c r="K41" s="1">
-        <v>435657.2419</v>
+        <v>435874.1718</v>
       </c>
       <c r="L41" s="1">
-        <v>11.4918</v>
+        <v>11.4975</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.1934</v>
@@ -16458,10 +16461,10 @@
         <v>610503.1924000001</v>
       </c>
       <c r="K42" s="1">
-        <v>443948.4014</v>
+        <v>444165.3313</v>
       </c>
       <c r="L42" s="1">
-        <v>11.5323</v>
+        <v>11.5379</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.1176</v>
@@ -16511,10 +16514,10 @@
         <v>617447.8023</v>
       </c>
       <c r="K43" s="1">
-        <v>459533.0967</v>
+        <v>459750.0266</v>
       </c>
       <c r="L43" s="1">
-        <v>11.6067</v>
+        <v>11.6122</v>
       </c>
       <c r="M43" s="1">
         <v>0.5</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3311</v>
@@ -16564,10 +16567,10 @@
         <v>694963.9151</v>
       </c>
       <c r="K44" s="1">
-        <v>481024.3685</v>
+        <v>481241.2984</v>
       </c>
       <c r="L44" s="1">
-        <v>11.7006</v>
+        <v>11.7059</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.3637</v>
@@ -16617,10 +16620,10 @@
         <v>706237.8810000001</v>
       </c>
       <c r="K45" s="1">
-        <v>449802.4476</v>
+        <v>450144.1692</v>
       </c>
       <c r="L45" s="1">
-        <v>11.5102</v>
+        <v>11.5189</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.6447</v>
@@ -16670,10 +16673,10 @@
         <v>687295.89</v>
       </c>
       <c r="K46" s="1">
-        <v>467568.2531</v>
+        <v>467909.9747</v>
       </c>
       <c r="L46" s="1">
-        <v>11.6216</v>
+        <v>11.6301</v>
       </c>
       <c r="M46" s="1">
         <v>1</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>15.486</v>
@@ -16723,10 +16726,10 @@
         <v>769856.3837</v>
       </c>
       <c r="K47" s="1">
-        <v>515885.5542</v>
+        <v>516227.2758</v>
       </c>
       <c r="L47" s="1">
-        <v>11.8525</v>
+        <v>11.8604</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.1958</v>
@@ -16776,10 +16779,10 @@
         <v>809910.518</v>
       </c>
       <c r="K48" s="1">
-        <v>498815.5026</v>
+        <v>499225.4297</v>
       </c>
       <c r="L48" s="1">
-        <v>11.7575</v>
+        <v>11.7671</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.4264</v>
@@ -16829,10 +16832,10 @@
         <v>829531.3011</v>
       </c>
       <c r="K49" s="1">
-        <v>488555.6625</v>
+        <v>489006.5575</v>
       </c>
       <c r="L49" s="1">
-        <v>11.6899</v>
+        <v>11.7006</v>
       </c>
       <c r="M49" s="1">
         <v>0.75</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>17.107</v>
@@ -16882,10 +16885,10 @@
         <v>896520.9773</v>
       </c>
       <c r="K50" s="1">
-        <v>499109.7989</v>
+        <v>499560.694</v>
       </c>
       <c r="L50" s="1">
-        <v>11.7619</v>
+        <v>11.7725</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>16.8894</v>
@@ -16935,10 +16938,10 @@
         <v>897410.9256</v>
       </c>
       <c r="K51" s="1">
-        <v>490689.5042</v>
+        <v>491174.0484</v>
       </c>
       <c r="L51" s="1">
-        <v>11.6989</v>
+        <v>11.7105</v>
       </c>
       <c r="M51" s="1">
         <v>1</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>16.4004</v>
@@ -16988,10 +16991,10 @@
         <v>923707.532</v>
       </c>
       <c r="K52" s="1">
-        <v>520660.5805</v>
+        <v>521145.1248</v>
       </c>
       <c r="L52" s="1">
-        <v>11.9106</v>
+        <v>11.9217</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>15.3877</v>
@@ -17041,10 +17044,10 @@
         <v>886738.2318</v>
       </c>
       <c r="K53" s="1">
-        <v>563215.6458000001</v>
+        <v>563700.1899999999</v>
       </c>
       <c r="L53" s="1">
-        <v>12.1635</v>
+        <v>12.174</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>14.6367</v>
@@ -17094,10 +17097,10 @@
         <v>858433.2241</v>
       </c>
       <c r="K54" s="1">
-        <v>631656.4570000001</v>
+        <v>632141.0013</v>
       </c>
       <c r="L54" s="1">
-        <v>12.4482</v>
+        <v>12.4578</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.0061</v>
@@ -17147,10 +17150,10 @@
         <v>778967.2378999999</v>
       </c>
       <c r="K55" s="1">
-        <v>691616.3416</v>
+        <v>692100.8858</v>
       </c>
       <c r="L55" s="1">
-        <v>12.6136</v>
+        <v>12.6224</v>
       </c>
       <c r="M55" s="1">
         <v>0.5</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.835</v>
@@ -17200,10 +17203,10 @@
         <v>863592.1891</v>
       </c>
       <c r="K56" s="1">
-        <v>768872.3389</v>
+        <v>769356.8831</v>
       </c>
       <c r="L56" s="1">
-        <v>12.6545</v>
+        <v>12.6624</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>14.4216</v>
@@ -17253,10 +17256,10 @@
         <v>909411.464</v>
       </c>
       <c r="K57" s="1">
-        <v>775275.6574</v>
+        <v>775760.2016</v>
       </c>
       <c r="L57" s="1">
-        <v>12.6636</v>
+        <v>12.6715</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.2404</v>
@@ -17306,10 +17309,10 @@
         <v>848316.4558999999</v>
       </c>
       <c r="K58" s="1">
-        <v>762057.4529</v>
+        <v>762594.7766</v>
       </c>
       <c r="L58" s="1">
-        <v>12.6365</v>
+        <v>12.6454</v>
       </c>
       <c r="M58" s="1">
         <v>0.4</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.382</v>
@@ -17359,10 +17362,10 @@
         <v>824149.7377000001</v>
       </c>
       <c r="K59" s="1">
-        <v>823493.4878</v>
+        <v>824030.8115</v>
       </c>
       <c r="L59" s="1">
-        <v>12.6814</v>
+        <v>12.6897</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.9583</v>
@@ -17412,10 +17415,10 @@
         <v>805486.9783</v>
       </c>
       <c r="K60" s="1">
-        <v>855203.7286</v>
+        <v>855741.0523</v>
       </c>
       <c r="L60" s="1">
-        <v>12.671</v>
+        <v>12.679</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.2036</v>
@@ -17465,10 +17468,10 @@
         <v>832173.5601</v>
       </c>
       <c r="K61" s="1">
-        <v>865203.7286</v>
+        <v>865741.0523</v>
       </c>
       <c r="L61" s="1">
-        <v>12.6626</v>
+        <v>12.6705</v>
       </c>
       <c r="M61" s="1">
         <v>0.4</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.9136</v>
@@ -17518,10 +17521,10 @@
         <v>915727.7578</v>
       </c>
       <c r="K62" s="1">
-        <v>875203.7286</v>
+        <v>875741.0523</v>
       </c>
       <c r="L62" s="1">
-        <v>12.6575</v>
+        <v>12.6652</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>12.8468</v>
       </c>
       <c r="D3" s="1">
-        <v>12.0887</v>
+        <v>12.1027</v>
       </c>
       <c r="E3" s="1">
-        <v>12.2726</v>
+        <v>12.2845</v>
       </c>
       <c r="F3" s="1">
-        <v>12.4454</v>
+        <v>12.4555</v>
       </c>
       <c r="G3" s="1">
-        <v>12.6575</v>
+        <v>12.6652</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>300338.9308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0301</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.444</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2507</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0795</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0457</v>
       </c>
     </row>
   </sheetData>
